--- a/other2/thomas/CodeJam2021R1C/RoaringYears.xlsx
+++ b/other2/thomas/CodeJam2021R1C/RoaringYears.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\competitive-programming\other2\thomas\CodeJam2021R1C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998EA67A-2EA2-4EE5-90FF-12B3CDE085AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE61197-5D0D-45B4-AAA1-F7BC7CD50085}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="0" windowWidth="37000" windowHeight="18290" xr2:uid="{18C31AB8-54C1-4270-BE1A-D8280FF67ACD}"/>
+    <workbookView xWindow="2800" yWindow="0" windowWidth="37000" windowHeight="18290" xr2:uid="{18C31AB8-54C1-4270-BE1A-D8280FF67ACD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>最小</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,10 @@
   </si>
   <si>
     <t>三个或以上组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -113,7 +117,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -247,13 +251,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -312,6 +325,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -628,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84C4829-3144-437B-A87A-ADBCA787D07C}">
-  <dimension ref="A3:T29"/>
+  <dimension ref="A2:T49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
@@ -641,163 +663,267 @@
     <col min="21" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13">
+        <v>3</v>
+      </c>
+      <c r="E2" s="13">
+        <v>4</v>
+      </c>
+      <c r="F2" s="13">
+        <v>5</v>
+      </c>
+      <c r="G2" s="13">
+        <v>6</v>
+      </c>
+      <c r="H2" s="13">
+        <v>7</v>
+      </c>
+      <c r="I2" s="13">
+        <v>8</v>
+      </c>
+      <c r="J2" s="13">
+        <v>9</v>
+      </c>
+      <c r="K2" s="13">
+        <v>10</v>
+      </c>
+      <c r="L2" s="13">
+        <v>11</v>
+      </c>
+      <c r="M2" s="13">
+        <v>12</v>
+      </c>
+      <c r="N2" s="13">
+        <v>13</v>
+      </c>
+      <c r="O2" s="13">
+        <v>14</v>
+      </c>
+      <c r="P2" s="13">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>16</v>
+      </c>
+      <c r="R2" s="13">
+        <v>17</v>
+      </c>
+      <c r="S2" s="13">
+        <v>18</v>
+      </c>
+      <c r="T2" s="13">
+        <v>19</v>
+      </c>
+    </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="13">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13">
-        <v>2</v>
-      </c>
-      <c r="D6" s="13">
-        <v>3</v>
-      </c>
-      <c r="E6" s="13">
-        <v>4</v>
-      </c>
-      <c r="F6" s="13">
-        <v>5</v>
-      </c>
-      <c r="G6" s="13">
-        <v>6</v>
-      </c>
-      <c r="H6" s="13">
-        <v>7</v>
-      </c>
-      <c r="I6" s="13">
-        <v>8</v>
-      </c>
-      <c r="J6" s="13">
-        <v>9</v>
-      </c>
-      <c r="K6" s="13">
-        <v>10</v>
-      </c>
-      <c r="L6" s="13">
-        <v>11</v>
-      </c>
-      <c r="M6" s="13">
-        <v>12</v>
-      </c>
-      <c r="N6" s="13">
-        <v>13</v>
-      </c>
-      <c r="O6" s="13">
-        <v>14</v>
-      </c>
-      <c r="P6" s="13">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>16</v>
-      </c>
-      <c r="R6" s="13">
-        <v>17</v>
-      </c>
-      <c r="S6" s="13">
-        <v>18</v>
-      </c>
-      <c r="T6" s="13">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-    </row>
-    <row r="8" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-    </row>
-    <row r="9" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10">
-        <v>2</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-    </row>
-    <row r="10" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6">
+        <v>9</v>
+      </c>
+      <c r="F7" s="6">
+        <v>9</v>
+      </c>
+      <c r="G7" s="6">
+        <v>9</v>
+      </c>
+      <c r="H7" s="6">
+        <v>9</v>
+      </c>
+      <c r="I7" s="6">
+        <v>9</v>
+      </c>
+      <c r="J7" s="11">
+        <v>9</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0</v>
+      </c>
+      <c r="T7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -818,121 +944,116 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
     </row>
-    <row r="11" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6">
-        <v>9</v>
-      </c>
-      <c r="D11" s="6">
-        <v>9</v>
-      </c>
-      <c r="E11" s="6">
-        <v>9</v>
-      </c>
-      <c r="F11" s="6">
-        <v>9</v>
-      </c>
-      <c r="G11" s="6">
-        <v>9</v>
-      </c>
-      <c r="H11" s="6">
-        <v>9</v>
-      </c>
-      <c r="I11" s="6">
-        <v>9</v>
-      </c>
-      <c r="J11" s="11">
-        <v>9</v>
-      </c>
-      <c r="K11" s="5">
-        <v>1</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>0</v>
-      </c>
-      <c r="R11" s="7">
-        <v>0</v>
-      </c>
-      <c r="S11" s="7">
-        <v>0</v>
-      </c>
-      <c r="T11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-    </row>
-    <row r="14" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+    <row r="11" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
+      <c r="D12" s="10">
+        <v>3</v>
+      </c>
+      <c r="E12" s="10">
+        <v>4</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10">
+        <v>3</v>
+      </c>
+      <c r="E13" s="10">
+        <v>4</v>
+      </c>
+      <c r="F13" s="10">
+        <v>5</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="10">
+        <v>3</v>
+      </c>
+      <c r="E14" s="10">
+        <v>4</v>
+      </c>
+      <c r="F14" s="17">
+        <v>5</v>
+      </c>
+      <c r="G14" s="10">
+        <v>6</v>
+      </c>
+      <c r="H14" s="9"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -947,9 +1068,6 @@
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
-        <v>0</v>
-      </c>
       <c r="B15" s="10">
         <v>1</v>
       </c>
@@ -959,11 +1077,19 @@
       <c r="D15" s="10">
         <v>3</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="E15" s="10">
+        <v>4</v>
+      </c>
+      <c r="F15" s="17">
+        <v>5</v>
+      </c>
+      <c r="G15" s="10">
+        <v>6</v>
+      </c>
+      <c r="H15" s="10">
+        <v>7</v>
+      </c>
+      <c r="I15" s="9"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -989,11 +1115,19 @@
       <c r="E16" s="10">
         <v>4</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="F16" s="17">
+        <v>5</v>
+      </c>
+      <c r="G16" s="10">
+        <v>6</v>
+      </c>
+      <c r="H16" s="10">
+        <v>7</v>
+      </c>
+      <c r="I16" s="10">
+        <v>8</v>
+      </c>
+      <c r="J16" s="9"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
@@ -1018,14 +1152,22 @@
       <c r="E17" s="10">
         <v>4</v>
       </c>
-      <c r="F17" s="10">
-        <v>5</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="F17" s="17">
+        <v>5</v>
+      </c>
+      <c r="G17" s="10">
+        <v>6</v>
+      </c>
+      <c r="H17" s="10">
+        <v>7</v>
+      </c>
+      <c r="I17" s="10">
+        <v>8</v>
+      </c>
+      <c r="J17" s="10">
+        <v>9</v>
+      </c>
+      <c r="K17" s="9"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -1055,12 +1197,22 @@
       <c r="G18" s="10">
         <v>6</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="H18" s="10">
+        <v>7</v>
+      </c>
+      <c r="I18" s="10">
+        <v>8</v>
+      </c>
+      <c r="J18" s="10">
+        <v>9</v>
+      </c>
+      <c r="K18" s="10">
+        <v>1</v>
+      </c>
+      <c r="L18" s="10">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -1091,13 +1243,25 @@
       <c r="H19" s="10">
         <v>7</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
+      <c r="I19" s="10">
+        <v>8</v>
+      </c>
+      <c r="J19" s="10">
+        <v>9</v>
+      </c>
+      <c r="K19" s="10">
+        <v>1</v>
+      </c>
+      <c r="L19" s="10">
+        <v>0</v>
+      </c>
+      <c r="M19" s="10">
+        <v>1</v>
+      </c>
+      <c r="N19" s="10">
+        <v>1</v>
+      </c>
+      <c r="O19" s="9"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -1129,14 +1293,28 @@
       <c r="I20" s="10">
         <v>8</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
+      <c r="J20" s="10">
+        <v>9</v>
+      </c>
+      <c r="K20" s="10">
+        <v>1</v>
+      </c>
+      <c r="L20" s="10">
+        <v>0</v>
+      </c>
+      <c r="M20" s="10">
+        <v>1</v>
+      </c>
+      <c r="N20" s="10">
+        <v>1</v>
+      </c>
+      <c r="O20" s="10">
+        <v>1</v>
+      </c>
+      <c r="P20" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="9"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
@@ -1154,30 +1332,46 @@
       <c r="E21" s="10">
         <v>4</v>
       </c>
-      <c r="F21" s="17">
-        <v>5</v>
-      </c>
-      <c r="G21" s="10">
-        <v>6</v>
-      </c>
-      <c r="H21" s="10">
-        <v>7</v>
-      </c>
-      <c r="I21" s="10">
+      <c r="F21" s="10">
+        <v>5</v>
+      </c>
+      <c r="G21" s="16">
+        <v>6</v>
+      </c>
+      <c r="H21" s="16">
+        <v>7</v>
+      </c>
+      <c r="I21" s="16">
         <v>8</v>
       </c>
-      <c r="J21" s="10">
-        <v>9</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
+      <c r="J21" s="16">
+        <v>9</v>
+      </c>
+      <c r="K21" s="16">
+        <v>1</v>
+      </c>
+      <c r="L21" s="16">
+        <v>0</v>
+      </c>
+      <c r="M21" s="16">
+        <v>1</v>
+      </c>
+      <c r="N21" s="16">
+        <v>1</v>
+      </c>
+      <c r="O21" s="16">
+        <v>1</v>
+      </c>
+      <c r="P21" s="16">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>1</v>
+      </c>
+      <c r="R21" s="10">
+        <v>3</v>
+      </c>
+      <c r="S21" s="9"/>
       <c r="T21" s="4"/>
     </row>
     <row r="22" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
@@ -1193,7 +1387,7 @@
       <c r="E22" s="10">
         <v>4</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="10">
         <v>5</v>
       </c>
       <c r="G22" s="10">
@@ -1214,56 +1408,46 @@
       <c r="L22" s="10">
         <v>0</v>
       </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
+      <c r="M22" s="10">
+        <v>1</v>
+      </c>
+      <c r="N22" s="10">
+        <v>1</v>
+      </c>
+      <c r="O22" s="10">
+        <v>1</v>
+      </c>
+      <c r="P22" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>1</v>
+      </c>
+      <c r="R22" s="10">
+        <v>3</v>
+      </c>
+      <c r="S22" s="10">
+        <v>1</v>
+      </c>
+      <c r="T22" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="10">
-        <v>1</v>
-      </c>
-      <c r="C23" s="10">
-        <v>2</v>
-      </c>
-      <c r="D23" s="10">
-        <v>3</v>
-      </c>
-      <c r="E23" s="10">
-        <v>4</v>
-      </c>
-      <c r="F23" s="17">
-        <v>5</v>
-      </c>
-      <c r="G23" s="10">
-        <v>6</v>
-      </c>
-      <c r="H23" s="10">
-        <v>7</v>
-      </c>
-      <c r="I23" s="10">
-        <v>8</v>
-      </c>
-      <c r="J23" s="10">
-        <v>9</v>
-      </c>
-      <c r="K23" s="10">
-        <v>1</v>
-      </c>
-      <c r="L23" s="10">
-        <v>0</v>
-      </c>
-      <c r="M23" s="10">
-        <v>1</v>
-      </c>
-      <c r="N23" s="10">
-        <v>1</v>
-      </c>
-      <c r="O23" s="9"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -1271,178 +1455,116 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="20"/>
       <c r="B24" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="10">
-        <v>3</v>
-      </c>
-      <c r="E24" s="10">
-        <v>4</v>
-      </c>
-      <c r="F24" s="17">
-        <v>5</v>
-      </c>
-      <c r="G24" s="10">
-        <v>6</v>
-      </c>
-      <c r="H24" s="10">
-        <v>7</v>
-      </c>
-      <c r="I24" s="10">
-        <v>8</v>
-      </c>
-      <c r="J24" s="10">
-        <v>9</v>
-      </c>
-      <c r="K24" s="10">
-        <v>1</v>
-      </c>
-      <c r="L24" s="10">
-        <v>0</v>
-      </c>
-      <c r="M24" s="10">
-        <v>1</v>
-      </c>
-      <c r="N24" s="10">
-        <v>1</v>
-      </c>
-      <c r="O24" s="10">
-        <v>1</v>
-      </c>
-      <c r="P24" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
+      <c r="T24" s="9"/>
     </row>
     <row r="25" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="20"/>
       <c r="B25" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" s="10">
-        <v>4</v>
-      </c>
-      <c r="F25" s="10">
-        <v>5</v>
-      </c>
-      <c r="G25" s="16">
-        <v>6</v>
-      </c>
-      <c r="H25" s="16">
-        <v>7</v>
-      </c>
-      <c r="I25" s="16">
-        <v>8</v>
-      </c>
-      <c r="J25" s="16">
-        <v>9</v>
-      </c>
-      <c r="K25" s="16">
-        <v>1</v>
-      </c>
-      <c r="L25" s="16">
-        <v>0</v>
-      </c>
-      <c r="M25" s="16">
-        <v>1</v>
-      </c>
-      <c r="N25" s="16">
-        <v>1</v>
-      </c>
-      <c r="O25" s="16">
-        <v>1</v>
-      </c>
-      <c r="P25" s="16">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="10">
-        <v>1</v>
-      </c>
-      <c r="R25" s="10">
-        <v>3</v>
-      </c>
-      <c r="S25" s="9"/>
-      <c r="T25" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="9"/>
     </row>
     <row r="26" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="20"/>
       <c r="B26" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" s="10">
-        <v>5</v>
-      </c>
-      <c r="G26" s="10">
-        <v>6</v>
-      </c>
-      <c r="H26" s="10">
-        <v>7</v>
-      </c>
-      <c r="I26" s="10">
-        <v>8</v>
-      </c>
-      <c r="J26" s="10">
-        <v>9</v>
-      </c>
-      <c r="K26" s="10">
-        <v>1</v>
-      </c>
-      <c r="L26" s="10">
-        <v>0</v>
-      </c>
-      <c r="M26" s="10">
-        <v>1</v>
-      </c>
-      <c r="N26" s="10">
-        <v>1</v>
-      </c>
-      <c r="O26" s="10">
-        <v>1</v>
-      </c>
-      <c r="P26" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="10">
-        <v>1</v>
-      </c>
-      <c r="R26" s="10">
-        <v>3</v>
-      </c>
-      <c r="S26" s="10">
-        <v>1</v>
-      </c>
-      <c r="T26" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="9"/>
+    </row>
+    <row r="27" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="20"/>
+      <c r="B27" s="10">
+        <v>2</v>
+      </c>
+      <c r="C27" s="10">
+        <v>3</v>
+      </c>
+      <c r="D27" s="10">
+        <v>4</v>
+      </c>
+      <c r="E27" s="10">
+        <v>5</v>
+      </c>
+      <c r="F27" s="10">
+        <v>6</v>
+      </c>
+      <c r="G27" s="10">
+        <v>7</v>
+      </c>
+      <c r="H27" s="9"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -1454,88 +1576,908 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
+      <c r="T27" s="9"/>
     </row>
     <row r="28" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-    </row>
-    <row r="29" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="5">
-        <v>9</v>
-      </c>
-      <c r="C29" s="6">
-        <v>9</v>
-      </c>
-      <c r="D29" s="6">
-        <v>9</v>
-      </c>
-      <c r="E29" s="6">
-        <v>9</v>
-      </c>
-      <c r="F29" s="6">
-        <v>9</v>
-      </c>
-      <c r="G29" s="12">
+      <c r="A28" s="20"/>
+      <c r="B28" s="10">
+        <v>2</v>
+      </c>
+      <c r="C28" s="10">
+        <v>3</v>
+      </c>
+      <c r="D28" s="10">
+        <v>4</v>
+      </c>
+      <c r="E28" s="10">
+        <v>5</v>
+      </c>
+      <c r="F28" s="10">
+        <v>6</v>
+      </c>
+      <c r="G28" s="10">
+        <v>7</v>
+      </c>
+      <c r="H28" s="10">
         <v>8</v>
       </c>
-      <c r="H29" s="5">
-        <v>9</v>
-      </c>
-      <c r="I29" s="6">
-        <v>9</v>
-      </c>
-      <c r="J29" s="6">
-        <v>9</v>
-      </c>
-      <c r="K29" s="6">
-        <v>9</v>
-      </c>
-      <c r="L29" s="6">
-        <v>9</v>
-      </c>
-      <c r="M29" s="11">
-        <v>9</v>
-      </c>
-      <c r="N29" s="7">
-        <v>1</v>
-      </c>
-      <c r="O29" s="7">
-        <v>0</v>
-      </c>
-      <c r="P29" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="7">
-        <v>0</v>
-      </c>
-      <c r="R29" s="7">
-        <v>0</v>
-      </c>
-      <c r="S29" s="7">
-        <v>0</v>
-      </c>
-      <c r="T29" s="8">
+      <c r="I28" s="9"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="9"/>
+    </row>
+    <row r="29" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="20"/>
+      <c r="B29" s="10">
+        <v>2</v>
+      </c>
+      <c r="C29" s="10">
+        <v>3</v>
+      </c>
+      <c r="D29" s="10">
+        <v>4</v>
+      </c>
+      <c r="E29" s="10">
+        <v>5</v>
+      </c>
+      <c r="F29" s="10">
+        <v>6</v>
+      </c>
+      <c r="G29" s="10">
+        <v>7</v>
+      </c>
+      <c r="H29" s="10">
+        <v>8</v>
+      </c>
+      <c r="I29" s="10">
+        <v>9</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="9"/>
+    </row>
+    <row r="30" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="20"/>
+      <c r="B30" s="10">
+        <v>2</v>
+      </c>
+      <c r="C30" s="10">
+        <v>3</v>
+      </c>
+      <c r="D30" s="10">
+        <v>4</v>
+      </c>
+      <c r="E30" s="10">
+        <v>5</v>
+      </c>
+      <c r="F30" s="10">
+        <v>6</v>
+      </c>
+      <c r="G30" s="10">
+        <v>7</v>
+      </c>
+      <c r="H30" s="10">
+        <v>8</v>
+      </c>
+      <c r="I30" s="10">
+        <v>9</v>
+      </c>
+      <c r="J30" s="10">
+        <v>1</v>
+      </c>
+      <c r="K30" s="10">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="9"/>
+    </row>
+    <row r="31" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="20"/>
+      <c r="B31" s="10">
+        <v>2</v>
+      </c>
+      <c r="C31" s="10">
+        <v>3</v>
+      </c>
+      <c r="D31" s="10">
+        <v>4</v>
+      </c>
+      <c r="E31" s="10">
+        <v>5</v>
+      </c>
+      <c r="F31" s="10">
+        <v>6</v>
+      </c>
+      <c r="G31" s="10">
+        <v>7</v>
+      </c>
+      <c r="H31" s="10">
+        <v>8</v>
+      </c>
+      <c r="I31" s="10">
+        <v>9</v>
+      </c>
+      <c r="J31" s="10">
+        <v>1</v>
+      </c>
+      <c r="K31" s="10">
+        <v>0</v>
+      </c>
+      <c r="L31" s="10">
+        <v>1</v>
+      </c>
+      <c r="M31" s="10">
+        <v>1</v>
+      </c>
+      <c r="N31" s="9"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="9"/>
+    </row>
+    <row r="32" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="20"/>
+      <c r="B32" s="10">
+        <v>2</v>
+      </c>
+      <c r="C32" s="10">
+        <v>3</v>
+      </c>
+      <c r="D32" s="10">
+        <v>4</v>
+      </c>
+      <c r="E32" s="10">
+        <v>5</v>
+      </c>
+      <c r="F32" s="10">
+        <v>6</v>
+      </c>
+      <c r="G32" s="10">
+        <v>7</v>
+      </c>
+      <c r="H32" s="10">
+        <v>8</v>
+      </c>
+      <c r="I32" s="10">
+        <v>9</v>
+      </c>
+      <c r="J32" s="10">
+        <v>1</v>
+      </c>
+      <c r="K32" s="10">
+        <v>0</v>
+      </c>
+      <c r="L32" s="10">
+        <v>1</v>
+      </c>
+      <c r="M32" s="10">
+        <v>1</v>
+      </c>
+      <c r="N32" s="10">
+        <v>1</v>
+      </c>
+      <c r="O32" s="10">
+        <v>2</v>
+      </c>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="9"/>
+    </row>
+    <row r="33" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="20"/>
+      <c r="B33" s="10">
+        <v>2</v>
+      </c>
+      <c r="C33" s="10">
+        <v>3</v>
+      </c>
+      <c r="D33" s="10">
+        <v>4</v>
+      </c>
+      <c r="E33" s="10">
+        <v>5</v>
+      </c>
+      <c r="F33" s="10">
+        <v>6</v>
+      </c>
+      <c r="G33" s="10">
+        <v>7</v>
+      </c>
+      <c r="H33" s="10">
+        <v>8</v>
+      </c>
+      <c r="I33" s="10">
+        <v>9</v>
+      </c>
+      <c r="J33" s="10">
+        <v>1</v>
+      </c>
+      <c r="K33" s="10">
+        <v>0</v>
+      </c>
+      <c r="L33" s="10">
+        <v>1</v>
+      </c>
+      <c r="M33" s="10">
+        <v>1</v>
+      </c>
+      <c r="N33" s="10">
+        <v>1</v>
+      </c>
+      <c r="O33" s="10">
+        <v>2</v>
+      </c>
+      <c r="P33" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>3</v>
+      </c>
+      <c r="R33" s="9"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="9"/>
+    </row>
+    <row r="34" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="20"/>
+      <c r="B34" s="10">
+        <v>2</v>
+      </c>
+      <c r="C34" s="10">
+        <v>3</v>
+      </c>
+      <c r="D34" s="10">
+        <v>4</v>
+      </c>
+      <c r="E34" s="10">
+        <v>5</v>
+      </c>
+      <c r="F34" s="10">
+        <v>6</v>
+      </c>
+      <c r="G34" s="10">
+        <v>7</v>
+      </c>
+      <c r="H34" s="10">
+        <v>8</v>
+      </c>
+      <c r="I34" s="10">
+        <v>9</v>
+      </c>
+      <c r="J34" s="10">
+        <v>1</v>
+      </c>
+      <c r="K34" s="10">
+        <v>0</v>
+      </c>
+      <c r="L34" s="10">
+        <v>1</v>
+      </c>
+      <c r="M34" s="10">
+        <v>1</v>
+      </c>
+      <c r="N34" s="10">
+        <v>1</v>
+      </c>
+      <c r="O34" s="10">
+        <v>2</v>
+      </c>
+      <c r="P34" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>3</v>
+      </c>
+      <c r="R34" s="10">
+        <v>1</v>
+      </c>
+      <c r="S34" s="10">
+        <v>4</v>
+      </c>
+      <c r="T34" s="9"/>
+    </row>
+    <row r="35" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="21"/>
+      <c r="B35" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+    </row>
+    <row r="36" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="21"/>
+      <c r="B36" s="10">
+        <v>5</v>
+      </c>
+      <c r="C36" s="10">
+        <v>6</v>
+      </c>
+      <c r="D36" s="10">
+        <v>7</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+    </row>
+    <row r="37" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="21"/>
+      <c r="B37" s="10">
+        <v>5</v>
+      </c>
+      <c r="C37" s="10">
+        <v>6</v>
+      </c>
+      <c r="D37" s="10">
+        <v>7</v>
+      </c>
+      <c r="E37" s="10">
+        <v>8</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+    </row>
+    <row r="38" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="21"/>
+      <c r="B38" s="10">
+        <v>5</v>
+      </c>
+      <c r="C38" s="10">
+        <v>6</v>
+      </c>
+      <c r="D38" s="10">
+        <v>7</v>
+      </c>
+      <c r="E38" s="10">
+        <v>8</v>
+      </c>
+      <c r="F38" s="10">
+        <v>9</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+    </row>
+    <row r="39" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="21"/>
+      <c r="B39" s="10">
+        <v>5</v>
+      </c>
+      <c r="C39" s="10">
+        <v>6</v>
+      </c>
+      <c r="D39" s="10">
+        <v>7</v>
+      </c>
+      <c r="E39" s="10">
+        <v>8</v>
+      </c>
+      <c r="F39" s="10">
+        <v>9</v>
+      </c>
+      <c r="G39" s="10">
+        <v>1</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+    </row>
+    <row r="40" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="21"/>
+      <c r="B40" s="10">
+        <v>5</v>
+      </c>
+      <c r="C40" s="10">
+        <v>6</v>
+      </c>
+      <c r="D40" s="10">
+        <v>7</v>
+      </c>
+      <c r="E40" s="10">
+        <v>8</v>
+      </c>
+      <c r="F40" s="10">
+        <v>9</v>
+      </c>
+      <c r="G40" s="10">
+        <v>1</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0</v>
+      </c>
+      <c r="I40" s="10">
+        <v>1</v>
+      </c>
+      <c r="J40" s="10">
+        <v>1</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+    </row>
+    <row r="41" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="21"/>
+      <c r="B41" s="10">
+        <v>5</v>
+      </c>
+      <c r="C41" s="10">
+        <v>6</v>
+      </c>
+      <c r="D41" s="10">
+        <v>7</v>
+      </c>
+      <c r="E41" s="10">
+        <v>8</v>
+      </c>
+      <c r="F41" s="10">
+        <v>9</v>
+      </c>
+      <c r="G41" s="10">
+        <v>1</v>
+      </c>
+      <c r="H41" s="10">
+        <v>0</v>
+      </c>
+      <c r="I41" s="10">
+        <v>1</v>
+      </c>
+      <c r="J41" s="10">
+        <v>1</v>
+      </c>
+      <c r="K41" s="10">
+        <v>1</v>
+      </c>
+      <c r="L41" s="10">
+        <v>2</v>
+      </c>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+    </row>
+    <row r="42" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="21"/>
+      <c r="B42" s="10">
+        <v>5</v>
+      </c>
+      <c r="C42" s="10">
+        <v>6</v>
+      </c>
+      <c r="D42" s="10">
+        <v>7</v>
+      </c>
+      <c r="E42" s="10">
+        <v>8</v>
+      </c>
+      <c r="F42" s="10">
+        <v>9</v>
+      </c>
+      <c r="G42" s="10">
+        <v>1</v>
+      </c>
+      <c r="H42" s="10">
+        <v>0</v>
+      </c>
+      <c r="I42" s="10">
+        <v>1</v>
+      </c>
+      <c r="J42" s="10">
+        <v>1</v>
+      </c>
+      <c r="K42" s="10">
+        <v>1</v>
+      </c>
+      <c r="L42" s="10">
+        <v>2</v>
+      </c>
+      <c r="M42" s="10">
+        <v>1</v>
+      </c>
+      <c r="N42" s="10">
+        <v>3</v>
+      </c>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+    </row>
+    <row r="43" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="21"/>
+      <c r="B43" s="10">
+        <v>5</v>
+      </c>
+      <c r="C43" s="10">
+        <v>6</v>
+      </c>
+      <c r="D43" s="10">
+        <v>7</v>
+      </c>
+      <c r="E43" s="10">
+        <v>8</v>
+      </c>
+      <c r="F43" s="10">
+        <v>9</v>
+      </c>
+      <c r="G43" s="10">
+        <v>1</v>
+      </c>
+      <c r="H43" s="10">
+        <v>0</v>
+      </c>
+      <c r="I43" s="10">
+        <v>1</v>
+      </c>
+      <c r="J43" s="10">
+        <v>1</v>
+      </c>
+      <c r="K43" s="10">
+        <v>1</v>
+      </c>
+      <c r="L43" s="10">
+        <v>2</v>
+      </c>
+      <c r="M43" s="10">
+        <v>1</v>
+      </c>
+      <c r="N43" s="10">
+        <v>3</v>
+      </c>
+      <c r="O43" s="10">
+        <v>1</v>
+      </c>
+      <c r="P43" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+    </row>
+    <row r="44" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="21"/>
+      <c r="B44" s="10">
+        <v>5</v>
+      </c>
+      <c r="C44" s="10">
+        <v>6</v>
+      </c>
+      <c r="D44" s="10">
+        <v>7</v>
+      </c>
+      <c r="E44" s="10">
+        <v>8</v>
+      </c>
+      <c r="F44" s="10">
+        <v>9</v>
+      </c>
+      <c r="G44" s="10">
+        <v>1</v>
+      </c>
+      <c r="H44" s="10">
+        <v>0</v>
+      </c>
+      <c r="I44" s="10">
+        <v>1</v>
+      </c>
+      <c r="J44" s="10">
+        <v>1</v>
+      </c>
+      <c r="K44" s="10">
+        <v>1</v>
+      </c>
+      <c r="L44" s="10">
+        <v>2</v>
+      </c>
+      <c r="M44" s="10">
+        <v>1</v>
+      </c>
+      <c r="N44" s="10">
+        <v>3</v>
+      </c>
+      <c r="O44" s="10">
+        <v>1</v>
+      </c>
+      <c r="P44" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="10">
+        <v>1</v>
+      </c>
+      <c r="R44" s="10">
+        <v>5</v>
+      </c>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+    </row>
+    <row r="45" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="21"/>
+      <c r="B45" s="10">
+        <v>5</v>
+      </c>
+      <c r="C45" s="10">
+        <v>6</v>
+      </c>
+      <c r="D45" s="10">
+        <v>7</v>
+      </c>
+      <c r="E45" s="10">
+        <v>8</v>
+      </c>
+      <c r="F45" s="10">
+        <v>9</v>
+      </c>
+      <c r="G45" s="10">
+        <v>1</v>
+      </c>
+      <c r="H45" s="10">
+        <v>0</v>
+      </c>
+      <c r="I45" s="10">
+        <v>1</v>
+      </c>
+      <c r="J45" s="10">
+        <v>1</v>
+      </c>
+      <c r="K45" s="10">
+        <v>1</v>
+      </c>
+      <c r="L45" s="10">
+        <v>2</v>
+      </c>
+      <c r="M45" s="10">
+        <v>1</v>
+      </c>
+      <c r="N45" s="10">
+        <v>3</v>
+      </c>
+      <c r="O45" s="10">
+        <v>1</v>
+      </c>
+      <c r="P45" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="10">
+        <v>1</v>
+      </c>
+      <c r="R45" s="10">
+        <v>5</v>
+      </c>
+      <c r="S45" s="10">
+        <v>1</v>
+      </c>
+      <c r="T45" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="21"/>
+      <c r="B46" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" s="21"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+    </row>
+    <row r="48" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+    </row>
+    <row r="49" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="5">
+        <v>9</v>
+      </c>
+      <c r="C49" s="6">
+        <v>9</v>
+      </c>
+      <c r="D49" s="6">
+        <v>9</v>
+      </c>
+      <c r="E49" s="6">
+        <v>9</v>
+      </c>
+      <c r="F49" s="6">
+        <v>9</v>
+      </c>
+      <c r="G49" s="12">
+        <v>8</v>
+      </c>
+      <c r="H49" s="5">
+        <v>9</v>
+      </c>
+      <c r="I49" s="6">
+        <v>9</v>
+      </c>
+      <c r="J49" s="6">
+        <v>9</v>
+      </c>
+      <c r="K49" s="6">
+        <v>9</v>
+      </c>
+      <c r="L49" s="6">
+        <v>9</v>
+      </c>
+      <c r="M49" s="11">
+        <v>9</v>
+      </c>
+      <c r="N49" s="7">
+        <v>1</v>
+      </c>
+      <c r="O49" s="7">
+        <v>0</v>
+      </c>
+      <c r="P49" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>0</v>
+      </c>
+      <c r="R49" s="7">
+        <v>0</v>
+      </c>
+      <c r="S49" s="7">
+        <v>0</v>
+      </c>
+      <c r="T49" s="8">
         <v>0</v>
       </c>
     </row>
